--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="48" activeTab="51"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="40" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -65,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>
@@ -662,14 +667,20 @@
   </si>
   <si>
     <t>45000.60</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +801,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -837,7 +851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -870,9 +884,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,6 +936,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,15 +1135,15 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1172,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1139,7 +1187,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1154,7 +1202,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1217,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1184,7 +1232,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1202,7 +1250,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1230,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1244,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1258,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1286,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1300,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1314,7 +1362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -1328,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1342,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -1370,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1412,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1426,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -1454,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1468,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1482,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -1496,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1510,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1524,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -1552,7 +1600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1566,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -1580,7 +1628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1594,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1608,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -1622,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1650,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1664,7 +1712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -1678,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1692,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1706,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1720,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -1734,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1748,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1762,7 +1810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1776,7 +1824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -1790,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1804,7 +1852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1818,7 +1866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -1832,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1859,24 +1907,24 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1929,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -1978,7 +2026,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1990,20 +2038,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -2064,28 +2112,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2129,7 +2177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2152,7 +2200,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>89</v>
@@ -2171,7 +2219,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2181,26 +2229,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2244,7 +2292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2267,7 +2315,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>65</v>
@@ -2286,7 +2334,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2296,29 +2344,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2371,7 +2419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2394,7 +2442,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>66</v>
@@ -2420,7 +2468,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2430,23 +2478,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2481,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -2524,20 +2572,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2566,7 +2614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -2598,27 +2646,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2662,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2685,7 +2733,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>67</v>
@@ -2704,7 +2752,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2714,25 +2762,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2799,7 +2847,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>103</v>
@@ -2818,7 +2866,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2828,29 +2876,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2903,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2926,7 +2974,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>139</v>
@@ -2952,7 +3000,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2966,24 +3014,24 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3074,21 +3122,21 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +3165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3149,27 +3197,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3213,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3236,7 +3284,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>140</v>
@@ -3255,7 +3303,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3265,23 +3313,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3325,7 +3373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3348,7 +3396,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>68</v>
@@ -3367,7 +3415,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3377,29 +3425,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3452,7 +3500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3475,7 +3523,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>115</v>
@@ -3501,7 +3549,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3515,15 +3563,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" width="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +3591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3568,20 +3616,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3610,7 +3658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3643,28 +3691,28 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3708,7 +3756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3731,7 +3779,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>69</v>
@@ -3750,7 +3798,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3761,24 +3809,24 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3822,7 +3870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3845,7 +3893,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>141</v>
@@ -3864,7 +3912,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3875,25 +3923,25 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3946,7 +3994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3969,7 +4017,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>186</v>
@@ -3995,7 +4043,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4006,20 +4054,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4048,7 +4096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4084,15 +4132,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="59.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4121,7 +4169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4155,28 +4203,28 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4220,7 +4268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4243,7 +4291,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>104</v>
@@ -4262,7 +4310,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4273,25 +4321,25 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4335,7 +4383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4358,7 +4406,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>142</v>
@@ -4377,7 +4425,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4387,27 +4435,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4460,7 +4508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4483,7 +4531,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>70</v>
@@ -4509,7 +4557,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4520,17 +4568,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +4598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4578,18 +4626,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4618,7 +4666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4651,26 +4699,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4714,7 +4762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4737,7 +4785,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>143</v>
@@ -4756,7 +4804,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4767,22 +4815,22 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4826,7 +4874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4849,7 +4897,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>106</v>
@@ -4868,7 +4916,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4879,26 +4927,26 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4951,7 +4999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4974,7 +5022,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>189</v>
@@ -5000,7 +5048,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5014,18 +5062,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5054,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -5088,26 +5136,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5151,7 +5199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5174,7 +5222,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>144</v>
@@ -5193,7 +5241,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5203,27 +5251,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5267,7 +5315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
@@ -5290,7 +5338,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>61</v>
@@ -5307,7 +5355,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -5318,24 +5366,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5379,7 +5427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5402,7 +5450,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>107</v>
@@ -5421,7 +5469,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5431,27 +5479,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5504,7 +5552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5527,7 +5575,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>192</v>
@@ -5553,7 +5601,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5567,17 +5615,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5606,7 +5654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -5639,27 +5687,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5703,7 +5751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5726,7 +5774,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>116</v>
@@ -5745,7 +5793,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5756,21 +5804,21 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5814,7 +5862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5837,7 +5885,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>109</v>
@@ -5856,7 +5904,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5866,27 +5914,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5939,7 +5987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5962,7 +6010,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>194</v>
@@ -5988,7 +6036,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -5999,24 +6047,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6045,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -6077,27 +6125,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6141,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6164,7 +6212,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>145</v>
@@ -6183,7 +6231,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6193,23 +6241,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6253,7 +6301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6276,7 +6324,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>195</v>
@@ -6295,7 +6343,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6305,26 +6353,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6377,7 +6425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6400,7 +6448,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>196</v>
@@ -6426,7 +6474,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6436,27 +6484,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6500,7 +6548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
@@ -6523,7 +6571,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>62</v>
@@ -6540,7 +6588,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6551,26 +6599,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6614,7 +6662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6637,7 +6685,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>110</v>
@@ -6656,8 +6704,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -6668,27 +6716,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6732,7 +6780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6755,7 +6803,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>146</v>
@@ -6774,8 +6822,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6785,26 +6833,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6857,7 +6905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6880,7 +6928,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>117</v>
@@ -6906,8 +6954,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -6919,28 +6967,28 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -6993,7 +7041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -7016,7 +7064,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>84</v>
@@ -7042,7 +7090,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -7054,20 +7102,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7096,7 +7144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -7129,27 +7177,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7193,7 +7241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -7216,7 +7264,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>63</v>
@@ -7235,7 +7283,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7245,27 +7293,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7309,7 +7357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -7332,7 +7380,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>88</v>
@@ -7351,7 +7399,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -1,76 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="40" activeTab="40"/>
+    <workbookView activeTab="40" firstSheet="40" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
-    <sheet name="ResetEmployeeDataJuly" sheetId="61" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="ResetEmployeeDataSep" sheetId="63" r:id="rId24"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId25"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId26"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId27"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
-    <sheet name="ResetEmployeeDataNov" sheetId="64" r:id="rId33"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId34"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId35"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId36"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId37"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId38"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId39"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId40"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId42"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId43"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId44"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId45"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId46"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId47"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId48"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId49"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
+    <sheet name="ResetEmployeeDataJuly" r:id="rId15" sheetId="61"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="ResetEmployeeDataSep" r:id="rId24" sheetId="63"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId25" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId26" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId27" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId28" sheetId="29"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
+    <sheet name="ResetEmployeeDataNov" r:id="rId33" sheetId="64"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId34" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId35" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId36" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId37" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId38" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId39" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId40" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId41" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId42" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId43" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId44" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId45" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId46" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId47" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId48" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId49" sheetId="44"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>
@@ -680,6 +680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,64 +740,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -813,10 +814,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -851,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,7 +904,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,7 +1009,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1017,13 +1018,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1033,7 +1034,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1042,7 +1043,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1051,7 +1052,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1061,12 +1062,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1097,7 +1098,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1116,7 +1117,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1128,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1137,10 +1138,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,12 +1896,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -1909,22 +1910,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2026,15 +2027,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2043,12 +2044,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2080,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -2104,12 +2105,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2118,19 +2119,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2177,7 +2178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="78" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2219,14 +2220,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2235,17 +2236,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2292,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="56.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2334,14 +2335,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2350,23 +2351,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2468,14 +2469,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,14 +2485,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2529,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -2563,12 +2564,12 @@
       <c r="M2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2577,12 +2578,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2614,7 +2615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -2638,12 +2639,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2652,18 +2653,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2710,7 +2711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="80.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2752,14 +2753,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2768,16 +2769,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2824,7 +2825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -2866,14 +2867,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2882,23 +2883,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="71.25" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3000,14 +3001,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,19 +3017,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3072,7 +3073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3112,13 +3113,13 @@
       <c r="O2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3127,13 +3128,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,7 +3166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3189,12 +3190,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3203,18 +3204,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3261,7 +3262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3303,14 +3304,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3319,14 +3320,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3373,7 +3374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3415,14 +3416,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3431,23 +3432,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3549,14 +3550,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3565,10 +3566,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3591,7 +3592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3606,13 +3607,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3621,12 +3622,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3658,7 +3659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -3682,12 +3683,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3696,20 +3697,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3756,7 +3757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3798,14 +3799,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -3814,16 +3815,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3870,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -3912,14 +3913,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3928,20 +3929,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4043,14 +4044,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4059,12 +4060,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4096,7 +4097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4120,12 +4121,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4134,10 +4135,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,7 +4170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4193,13 +4194,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4208,20 +4209,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4268,7 +4269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4310,14 +4311,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4326,17 +4327,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4383,7 +4384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4425,14 +4426,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4441,21 +4442,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4557,14 +4558,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4573,9 +4574,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4598,7 +4599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4613,13 +4614,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,13 +4629,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4666,7 +4667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -4690,12 +4691,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -4704,18 +4705,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4762,7 +4763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4804,14 +4805,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4820,14 +4821,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4874,7 +4875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -4916,14 +4917,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4932,21 +4933,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5048,14 +5049,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5064,13 +5065,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5102,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -5126,13 +5127,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5141,18 +5142,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5199,7 +5200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5241,14 +5242,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5257,18 +5258,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5315,7 +5316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
@@ -5355,15 +5356,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5372,15 +5373,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5427,7 +5428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5469,14 +5470,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
@@ -5485,21 +5486,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5601,14 +5602,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5617,12 +5618,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5654,7 +5655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -5678,13 +5679,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5693,18 +5694,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5751,7 +5752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5793,14 +5794,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5809,13 +5810,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5862,7 +5863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -5904,14 +5905,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5920,21 +5921,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6036,15 +6037,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6053,15 +6054,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6093,7 +6094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -6117,12 +6118,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6131,18 +6132,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6189,7 +6190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6231,14 +6232,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6247,14 +6248,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6301,7 +6302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6343,14 +6344,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6359,20 +6360,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6474,14 +6475,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6490,18 +6491,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6548,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
@@ -6588,14 +6589,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6604,18 +6605,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6662,7 +6663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6704,16 +6705,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId2" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6722,18 +6723,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6780,7 +6781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6822,15 +6823,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId2" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -6839,20 +6840,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -6954,16 +6955,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId2" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6972,23 +6973,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -7090,15 +7091,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7107,12 +7108,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7144,7 +7145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -7168,13 +7169,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7183,18 +7184,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7241,7 +7242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -7283,14 +7284,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7299,18 +7300,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7357,7 +7358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="51" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
@@ -7399,8 +7400,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -1,76 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="40" firstSheet="40" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="48" activeTab="51"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
-    <sheet name="ResetEmployeeDataJuly" r:id="rId15" sheetId="61"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="ResetEmployeeDataSep" r:id="rId24" sheetId="63"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId25" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId26" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId27" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId28" sheetId="29"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
-    <sheet name="ResetEmployeeDataNov" r:id="rId33" sheetId="64"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId34" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId35" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId36" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId37" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId38" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId39" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId40" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId41" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId42" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId43" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId44" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId45" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId46" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId47" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId48" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId49" sheetId="44"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
+    <sheet name="ResetEmployeeDataJuly" sheetId="61" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="ResetEmployeeDataSep" sheetId="63" r:id="rId24"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId25"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId26"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId27"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
+    <sheet name="ResetEmployeeDataNov" sheetId="64" r:id="rId33"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId34"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId35"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId36"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId37"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId38"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId39"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId40"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId42"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId43"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId44"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId45"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId46"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId47"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId48"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId49"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>
@@ -318,9 +313,6 @@
     <t>UpdteTaxCodeAndAnualSalaryM1</t>
   </si>
   <si>
-    <t>DONT TOUCH AUTO EMPLR HMRC RECNTION</t>
-  </si>
-  <si>
     <t>ProcessFinalPayrollForApril</t>
   </si>
   <si>
@@ -511,9 +503,6 @@
   </si>
   <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>Monthly_RTIPayroll</t>
   </si>
   <si>
     <t>correct till 7th row</t>
@@ -674,13 +663,18 @@
   <si>
     <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx
 </t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO HMRCS3 EMPLOYER</t>
+  </si>
+  <si>
+    <t>HMRCS3_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,64 +734,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -814,10 +808,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -852,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,26 +879,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,23 +914,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,7 +969,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1018,13 +978,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1034,7 +994,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1043,7 +1003,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1052,7 +1012,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1062,12 +1022,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1098,7 +1058,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1117,7 +1077,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1129,19 +1089,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,11 +1131,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
@@ -1186,7 +1146,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1201,7 +1161,7 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1216,11 +1176,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>80</v>
@@ -1231,11 +1191,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>80</v>
@@ -1247,9 +1207,9 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>146</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1281,7 +1241,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -1337,7 +1297,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>80</v>
@@ -1365,7 +1325,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -1407,7 +1367,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>80</v>
@@ -1463,7 +1423,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>80</v>
@@ -1491,7 +1451,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>80</v>
@@ -1533,7 +1493,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>80</v>
@@ -1589,7 +1549,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>80</v>
@@ -1617,7 +1577,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>80</v>
@@ -1659,7 +1619,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>80</v>
@@ -1715,7 +1675,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -1771,7 +1731,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>80</v>
@@ -1827,7 +1787,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>80</v>
@@ -1869,7 +1829,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>80</v>
@@ -1896,36 +1856,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1959,14 +1919,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1978,81 +1938,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2081,60 +2041,60 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2178,78 +2138,78 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="78" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2293,81 +2253,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="56.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2401,14 +2361,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2420,105 +2380,105 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -2530,63 +2490,63 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2615,59 +2575,59 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2711,77 +2671,77 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="80.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2825,81 +2785,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="57" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2933,14 +2893,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2952,116 +2912,116 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="71.25" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -3073,71 +3033,71 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3166,59 +3126,59 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3262,75 +3222,75 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3374,81 +3334,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3482,14 +3442,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3501,78 +3461,78 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3580,7 +3540,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3592,45 +3552,45 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3659,61 +3619,61 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3757,77 +3717,77 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3871,78 +3831,78 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3976,14 +3936,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3995,80 +3955,80 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4097,51 +4057,51 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="59.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4170,23 +4130,23 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>8160.48</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4194,38 +4154,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4269,78 +4229,78 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4384,79 +4344,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4490,14 +4450,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4509,77 +4469,77 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4587,7 +4547,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4599,46 +4559,46 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4667,59 +4627,59 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4763,75 +4723,75 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4875,79 +4835,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4981,14 +4941,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5000,81 +4960,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5103,60 +5063,60 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5200,79 +5160,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5316,15 +5276,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5333,13 +5293,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>61</v>
@@ -5348,43 +5308,40 @@
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5428,79 +5385,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5534,14 +5491,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5553,80 +5510,80 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5655,60 +5612,60 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5752,74 +5709,74 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5863,79 +5820,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5969,14 +5926,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5988,84 +5945,84 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6094,59 +6051,59 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6190,75 +6147,75 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6302,78 +6259,78 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6407,14 +6364,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6426,86 +6383,86 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6549,15 +6506,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -6566,13 +6523,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>62</v>
@@ -6581,7 +6538,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -6589,37 +6546,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6663,81 +6620,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId2" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6781,79 +6738,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId2" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6887,14 +6844,14 @@
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6906,217 +6863,217 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId2" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7145,60 +7102,60 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7242,79 +7199,79 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="57" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7358,50 +7315,50 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="51" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -4,68 +4,68 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="48" activeTab="51"/>
+    <workbookView activeTab="51" firstSheet="48" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
-    <sheet name="ResetEmployeeDataJuly" sheetId="61" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="ResetEmployeeDataSep" sheetId="63" r:id="rId24"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId25"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId26"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId27"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
-    <sheet name="ResetEmployeeDataNov" sheetId="64" r:id="rId33"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId34"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId35"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId36"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId37"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId38"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId39"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId40"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId42"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId43"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId44"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId45"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId46"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId47"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId48"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId49"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
+    <sheet name="ResetEmployeeDataJuly" r:id="rId15" sheetId="61"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="ResetEmployeeDataSep" r:id="rId24" sheetId="63"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId25" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId26" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId27" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId28" sheetId="29"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
+    <sheet name="ResetEmployeeDataNov" r:id="rId33" sheetId="64"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId34" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId35" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId36" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId37" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId38" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId39" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId40" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId41" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId42" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId43" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId44" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId45" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId46" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId47" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId48" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId49" sheetId="44"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>
@@ -675,6 +675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,64 +735,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -808,10 +809,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -969,7 +970,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -978,13 +979,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -994,7 +995,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1003,7 +1004,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1012,7 +1013,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1022,12 +1023,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1058,7 +1059,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1077,7 +1078,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1089,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1098,10 +1099,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,12 +1857,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1870,22 +1871,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -1987,15 +1988,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2004,15 +2005,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -2065,12 +2066,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2079,22 +2080,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="78" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -2180,14 +2181,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2196,20 +2197,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="56.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -2295,14 +2296,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2311,23 +2312,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -2429,14 +2430,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2445,17 +2446,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -2524,12 +2525,12 @@
       <c r="M2" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2538,15 +2539,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -2599,12 +2600,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,21 +2614,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="80.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -2713,14 +2714,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,19 +2730,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -2827,14 +2828,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,23 +2844,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="71.25" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -2961,14 +2962,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2977,22 +2978,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -3073,13 +3074,13 @@
       <c r="O2" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3088,16 +3089,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -3150,12 +3151,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3164,21 +3165,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -3264,14 +3265,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3280,17 +3281,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -3376,14 +3377,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,23 +3393,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -3510,14 +3511,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3526,13 +3527,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -3567,13 +3568,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,15 +3583,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -3643,12 +3644,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,23 +3658,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -3759,14 +3760,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3775,19 +3776,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -3873,14 +3874,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,20 +3890,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -4004,14 +4005,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4020,15 +4021,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -4081,12 +4082,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4095,13 +4096,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -4154,13 +4155,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4169,23 +4170,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -4271,14 +4272,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4287,20 +4288,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4344,7 +4345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -4386,14 +4387,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4402,21 +4403,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -4518,14 +4519,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4534,12 +4535,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -4574,13 +4575,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4589,16 +4590,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -4651,12 +4652,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4665,21 +4666,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -4765,14 +4766,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,17 +4782,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -4877,14 +4878,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4893,21 +4894,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5009,14 +5010,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5025,16 +5026,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.950000000000003" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -5087,13 +5088,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5102,21 +5103,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5202,14 +5203,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5218,18 +5219,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5276,7 +5277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5315,13 +5316,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5330,18 +5331,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5427,14 +5428,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5443,21 +5444,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5559,14 +5560,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5575,15 +5576,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.950000000000003" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -5636,13 +5637,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5651,21 +5652,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5751,14 +5752,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5767,16 +5768,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5862,14 +5863,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5878,21 +5879,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -5994,15 +5995,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6011,18 +6012,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.950000000000003" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -6075,12 +6076,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6089,21 +6090,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -6189,14 +6190,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6205,17 +6206,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -6301,14 +6302,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6317,20 +6318,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -6432,14 +6433,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6448,21 +6449,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -6546,14 +6547,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6562,21 +6563,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -6662,16 +6663,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6680,21 +6681,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -6780,15 +6781,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6797,20 +6798,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -6912,16 +6913,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6930,23 +6931,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
@@ -6999,7 +7000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -7048,15 +7049,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7065,15 +7066,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -7126,13 +7127,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7141,21 +7142,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -7241,14 +7242,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7257,21 +7258,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="51" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
@@ -7357,8 +7358,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="51" firstSheet="48" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
+    <workbookView activeTab="9" firstSheet="7" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -60,12 +65,12 @@
     <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
     <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="200">
   <si>
     <t>TC</t>
   </si>
@@ -320,9 +325,6 @@
   </si>
   <si>
     <t>TestAprilReports</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll RTI Recognition Test Report 201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
   </si>
   <si>
     <t>ProcessFinalPayrollForMay</t>
@@ -674,7 +676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -847,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,9 +882,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,6 +934,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,11 +1133,11 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1136,7 +1172,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
@@ -1208,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="13"/>
     </row>
@@ -1242,7 +1278,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -1298,7 +1334,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>80</v>
@@ -1326,7 +1362,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -1368,7 +1404,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>80</v>
@@ -1424,7 +1460,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>80</v>
@@ -1452,7 +1488,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>80</v>
@@ -1494,7 +1530,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>80</v>
@@ -1550,7 +1586,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>80</v>
@@ -1578,7 +1614,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>80</v>
@@ -1620,7 +1656,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>80</v>
@@ -1676,7 +1712,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -1732,7 +1768,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>80</v>
@@ -1788,7 +1824,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>80</v>
@@ -1830,7 +1866,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>80</v>
@@ -1865,25 +1901,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1921,13 +1957,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1939,30 +1975,30 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="75" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>64</v>
@@ -1971,10 +2007,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -2003,17 +2039,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2044,19 +2080,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -2078,24 +2114,24 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2139,15 +2175,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="78" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="78" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2156,22 +2192,22 @@
         <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -2195,22 +2231,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2254,15 +2290,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="56.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="56.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2271,13 +2307,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>65</v>
@@ -2286,7 +2322,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -2310,22 +2346,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2363,13 +2399,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2381,15 +2417,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2398,13 +2434,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>66</v>
@@ -2413,16 +2449,16 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>68</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -2444,42 +2480,42 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -2493,28 +2529,28 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
@@ -2537,17 +2573,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2578,19 +2614,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -2612,23 +2648,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2672,15 +2708,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="80.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="80.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2689,13 +2725,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>67</v>
@@ -2704,7 +2740,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -2728,21 +2764,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2786,15 +2822,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2803,22 +2839,22 @@
         <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -2842,22 +2878,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2895,13 +2931,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2913,15 +2949,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="71.25" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="71.25" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2930,28 +2966,28 @@
         <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>71</v>
@@ -2976,53 +3012,53 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -3036,28 +3072,28 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>8</v>
@@ -3087,18 +3123,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3129,19 +3165,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -3163,23 +3199,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3223,15 +3259,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3240,22 +3276,22 @@
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -3279,19 +3315,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3335,15 +3371,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3352,13 +3388,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>68</v>
@@ -3367,7 +3403,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -3391,22 +3427,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3444,13 +3480,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3462,15 +3498,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3479,31 +3515,31 @@
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -3525,15 +3561,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3541,7 +3577,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3555,13 +3591,13 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
@@ -3581,17 +3617,17 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3622,19 +3658,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -3656,25 +3692,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3718,15 +3754,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3735,13 +3771,13 @@
         <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>69</v>
@@ -3750,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -3774,21 +3810,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3832,15 +3868,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3849,22 +3885,22 @@
         <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -3888,19 +3924,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3938,13 +3974,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3956,15 +3992,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3973,31 +4009,31 @@
         <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -4019,17 +4055,17 @@
       <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4060,19 +4096,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -4094,15 +4130,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="59.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4133,13 +4169,13 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
@@ -4168,25 +4204,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4230,15 +4266,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4247,22 +4283,22 @@
         <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -4286,22 +4322,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4345,15 +4381,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4362,22 +4398,22 @@
         <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -4401,20 +4437,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4452,13 +4488,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4470,15 +4506,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4487,13 +4523,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>70</v>
@@ -4502,16 +4538,16 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -4533,14 +4569,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4548,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4562,13 +4598,13 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
@@ -4588,18 +4624,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4630,19 +4666,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -4664,23 +4700,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4724,15 +4760,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4741,22 +4777,22 @@
         <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -4780,19 +4816,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4836,15 +4872,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4853,22 +4889,22 @@
         <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -4892,20 +4928,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4943,13 +4979,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4961,15 +4997,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4978,31 +5014,31 @@
         <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -5024,18 +5060,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5064,21 +5100,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.950000000000003" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -5101,23 +5137,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5161,15 +5197,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5178,22 +5214,22 @@
         <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -5217,23 +5253,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5277,15 +5313,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5294,13 +5330,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>61</v>
@@ -5309,7 +5345,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -5329,20 +5365,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5386,15 +5422,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5403,22 +5439,22 @@
         <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -5442,20 +5478,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5493,13 +5529,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5511,15 +5547,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5528,31 +5564,31 @@
         <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -5574,17 +5610,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5613,21 +5649,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.950000000000003" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -5650,23 +5686,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5710,39 +5746,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -5766,18 +5802,18 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5821,39 +5857,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -5877,20 +5913,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5928,13 +5964,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5946,48 +5982,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -6010,20 +6046,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="47.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6052,21 +6088,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.950000000000003" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -6088,23 +6124,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6148,39 +6184,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -6204,19 +6240,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6260,39 +6296,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -6316,19 +6352,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6366,13 +6402,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6384,48 +6420,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -6447,23 +6483,23 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6507,15 +6543,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -6524,13 +6560,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>62</v>
@@ -6539,7 +6575,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -6561,23 +6597,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6621,39 +6657,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -6679,23 +6715,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="26.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6739,39 +6775,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -6792,23 +6828,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6846,13 +6882,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6864,48 +6900,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -6925,26 +6961,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="30" r="1" s="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -6982,13 +7018,13 @@
         <v>29</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>2</v>
@@ -7000,15 +7036,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.5" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -7017,13 +7053,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>198</v>
+      <c r="H2" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>83</v>
@@ -7032,10 +7068,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>61</v>
@@ -7052,7 +7088,7 @@
     <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7064,17 +7100,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7105,19 +7141,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -7140,23 +7176,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7200,30 +7236,30 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>63</v>
@@ -7232,7 +7268,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>
@@ -7256,23 +7292,23 @@
       <selection activeCell="B2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -7316,39 +7352,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="51" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="51" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="200">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="7" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="23" firstSheet="23" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="200">
   <si>
     <t>TC</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>England</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 103</t>
   </si>
   <si>
     <t>1000L</t>
@@ -671,6 +668,9 @@
   </si>
   <si>
     <t>HMRCS3_Payroll</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 3</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>80</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>80</v>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,28 +1977,28 @@
     </row>
     <row customFormat="1" customHeight="1" ht="75" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>64</v>
@@ -2036,7 +2036,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,19 +2080,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -2111,7 +2111,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,13 +2177,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="78" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2192,13 +2192,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>87</v>
@@ -2228,7 +2228,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,13 +2292,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="56.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2307,13 +2307,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>65</v>
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,13 +2419,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2434,13 +2434,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>66</v>
@@ -2458,7 +2458,7 @@
         <v>113</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -2477,7 +2477,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2515,7 @@
         <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -2529,28 +2529,28 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>154</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
@@ -2570,7 +2570,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,19 +2614,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -2645,7 +2645,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,13 +2710,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="80.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2725,13 +2725,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>67</v>
@@ -2761,7 +2761,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,13 +2824,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2839,13 +2839,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>101</v>
@@ -2875,7 +2875,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,13 +2951,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="71.25" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -2966,13 +2966,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>137</v>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,10 +3055,10 @@
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>155</v>
@@ -3093,7 +3093,7 @@
         <v>154</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>8</v>
@@ -3120,7 +3120,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,19 +3165,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -3196,7 +3196,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,13 +3261,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="62.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3276,13 +3276,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>138</v>
@@ -3312,7 +3312,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,13 +3373,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3388,13 +3388,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>68</v>
@@ -3424,7 +3424,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,13 +3500,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3515,13 +3515,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>113</v>
@@ -3557,15 +3557,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3577,7 +3577,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3591,13 +3591,13 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
@@ -3614,7 +3614,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,19 +3658,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -3689,7 +3689,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,13 +3756,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3771,13 +3771,13 @@
         <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>69</v>
@@ -3807,7 +3807,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,13 +3870,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="53.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -3885,13 +3885,13 @@
         <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>139</v>
@@ -3921,7 +3921,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,13 +3994,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4009,16 +4009,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
@@ -4052,7 +4052,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4096,19 +4096,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -4127,7 +4127,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,13 +4169,13 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
@@ -4201,7 +4201,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4268,13 +4268,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4283,13 +4283,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>102</v>
@@ -4319,7 +4319,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,13 +4383,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4398,13 +4398,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>140</v>
@@ -4434,7 +4434,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,13 +4508,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4523,13 +4523,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>70</v>
@@ -4566,7 +4566,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4584,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4598,13 +4598,13 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
@@ -4621,7 +4621,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,19 +4666,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -4697,7 +4697,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4762,13 +4762,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4777,13 +4777,13 @@
         <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>141</v>
@@ -4813,7 +4813,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,13 +4874,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -4889,13 +4889,13 @@
         <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>104</v>
@@ -4925,7 +4925,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4999,13 +4999,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5014,16 +5014,16 @@
         <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
@@ -5057,7 +5057,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,19 +5102,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -5134,7 +5134,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,13 +5199,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5214,13 +5214,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>142</v>
@@ -5250,7 +5250,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,13 +5315,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5330,13 +5330,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>61</v>
@@ -5362,7 +5362,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5424,13 +5424,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5439,13 +5439,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>105</v>
@@ -5475,7 +5475,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5549,13 +5549,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5564,16 +5564,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
@@ -5606,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5651,19 +5651,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -5683,7 +5683,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5748,13 +5748,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5763,13 +5763,13 @@
         <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>114</v>
@@ -5799,7 +5799,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5859,13 +5859,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5874,13 +5874,13 @@
         <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>107</v>
@@ -5910,7 +5910,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5984,13 +5984,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -5999,16 +5999,16 @@
         <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
@@ -6043,7 +6043,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6090,19 +6090,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -6121,7 +6121,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6186,13 +6186,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -6201,13 +6201,13 @@
         <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>143</v>
@@ -6237,7 +6237,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6298,13 +6298,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -6313,16 +6313,16 @@
         <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
@@ -6349,7 +6349,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,13 +6422,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -6437,16 +6437,16 @@
         <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
@@ -6480,7 +6480,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6545,13 +6545,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -6560,13 +6560,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>62</v>
@@ -6594,7 +6594,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,13 +6659,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -6674,13 +6674,13 @@
         <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>108</v>
@@ -6712,7 +6712,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6777,13 +6777,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -6792,13 +6792,13 @@
         <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>144</v>
@@ -6829,7 +6829,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,13 +6902,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -6917,13 +6917,13 @@
         <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>115</v>
@@ -6961,8 +6961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7038,13 +7038,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.5" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -7053,13 +7053,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>83</v>
@@ -7097,7 +7097,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7141,19 +7141,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -7173,7 +7173,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7238,28 +7238,28 @@
     </row>
     <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>63</v>
@@ -7289,7 +7289,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7354,28 +7354,28 @@
     </row>
     <row customFormat="1" customHeight="1" ht="51" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>86</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="200">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioThree201718.xlsx
@@ -1,76 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="23" firstSheet="23" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="48" activeTab="51"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
-    <sheet name="ResetEmployeeDataJuly" r:id="rId15" sheetId="61"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="ResetEmployeeDataSep" r:id="rId24" sheetId="63"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId25" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId26" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId27" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId28" sheetId="29"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
-    <sheet name="ResetEmployeeDataNov" r:id="rId33" sheetId="64"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId34" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId35" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId36" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId37" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId38" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId39" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId40" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId41" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId42" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId43" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId44" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId45" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId46" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId47" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId48" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId49" sheetId="44"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
+    <sheet name="ResetEmployeeDataJuly" sheetId="61" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="ResetEmployeeDataSep" sheetId="63" r:id="rId24"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId25"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId26"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId27"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
+    <sheet name="ResetEmployeeDataNov" sheetId="64" r:id="rId33"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId34"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId35"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId36"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId37"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId38"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId39"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId40"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId42"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId43"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId44"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId45"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId46"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId47"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId48"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId49"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="200">
   <si>
     <t>TC</t>
   </si>
@@ -670,14 +670,13 @@
     <t>HMRCS3_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 3</t>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,64 +736,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -811,10 +810,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -849,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,7 +900,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,7 +1005,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1015,13 +1014,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1031,7 +1030,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1040,7 +1039,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1049,7 +1048,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1059,12 +1058,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1095,7 +1094,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1114,7 +1113,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1126,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1135,10 +1134,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1893,12 +1892,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1907,22 +1906,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="75" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -2024,15 +2023,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2041,12 +2040,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -2102,12 +2101,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2116,19 +2115,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2175,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="78" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -2217,14 +2216,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,17 +2232,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2290,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="56.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -2332,14 +2331,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,23 +2347,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -2466,14 +2465,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,14 +2481,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2527,7 +2526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -2561,12 +2560,12 @@
       <c r="M2" s="9"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2575,12 +2574,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2612,7 +2611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -2636,12 +2635,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2650,18 +2649,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2708,7 +2707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="80.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -2750,14 +2749,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2766,16 +2765,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2822,7 +2821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -2864,14 +2863,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2880,23 +2879,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="71.25" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -2998,14 +2997,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3014,19 +3013,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3070,7 +3069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -3110,13 +3109,13 @@
       <c r="O2" s="9"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3125,13 +3124,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3163,7 +3162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -3187,12 +3186,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3201,18 +3200,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3259,7 +3258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -3301,14 +3300,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3317,14 +3316,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3371,7 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -3413,14 +3412,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3429,23 +3428,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -3547,26 +3546,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="36" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3589,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -3604,13 +3603,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3619,12 +3618,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3656,7 +3655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -3680,12 +3679,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3694,20 +3693,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3754,7 +3753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -3796,14 +3795,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3812,16 +3811,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3868,7 +3867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -3910,14 +3909,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3926,20 +3925,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -4041,14 +4040,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4057,12 +4056,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,7 +4093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -4118,12 +4117,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4132,10 +4131,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="59.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4167,7 +4166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -4191,13 +4190,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4206,20 +4205,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4266,7 +4265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -4308,14 +4307,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4324,17 +4323,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4381,7 +4380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -4423,14 +4422,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4439,21 +4438,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -4555,14 +4554,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4571,9 +4570,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4596,7 +4595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -4611,13 +4610,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4626,13 +4625,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4664,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -4688,12 +4687,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4702,18 +4701,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4760,7 +4759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -4802,14 +4801,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4818,14 +4817,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4872,7 +4871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -4914,14 +4913,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4930,21 +4929,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -5046,14 +5045,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5062,13 +5061,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5100,7 +5099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -5124,13 +5123,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5139,18 +5138,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5197,7 +5196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -5239,14 +5238,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5255,18 +5254,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5313,7 +5312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -5352,13 +5351,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5367,15 +5366,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5422,7 +5421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -5464,14 +5463,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5480,21 +5479,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -5596,14 +5595,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5612,12 +5611,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5649,7 +5648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -5673,13 +5672,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5688,18 +5687,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5746,7 +5745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -5788,14 +5787,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5804,13 +5803,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5857,7 +5856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -5899,14 +5898,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5915,21 +5914,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6031,15 +6030,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6048,15 +6047,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6088,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -6112,12 +6111,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6126,18 +6125,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6184,7 +6183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6226,14 +6225,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,14 +6241,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6296,7 +6295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6338,14 +6337,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6354,20 +6353,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6469,14 +6468,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6485,18 +6484,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6543,7 +6542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6583,14 +6582,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6599,18 +6598,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6657,7 +6656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6699,16 +6698,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6717,18 +6716,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6775,7 +6774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6817,15 +6816,148 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6834,73 +6966,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -6913,8 +7048,8 @@
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>89</v>
+      <c r="E2" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>160</v>
@@ -6922,11 +7057,11 @@
       <c r="G2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>195</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>25</v>
@@ -6935,13 +7070,13 @@
         <v>112</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -6949,151 +7084,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000007GFbv" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" ht="30" r="1" s="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.5" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7102,12 +7101,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7139,7 +7138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>199</v>
       </c>
@@ -7163,13 +7162,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7178,18 +7177,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7236,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="57" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -7278,14 +7277,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7294,18 +7293,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7352,7 +7351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="51" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>197</v>
       </c>
@@ -7394,8 +7393,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>